--- a/Screw Chart.xlsx
+++ b/Screw Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40990A3D-6565-4F11-94A1-4DE05C3F9065}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF9B5AF-B35B-4AC2-B862-084F7B3749CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-75" windowWidth="25440" windowHeight="15390" xr2:uid="{EC3DD6A9-97DF-45C5-BDB8-103930431B80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" xr2:uid="{EC3DD6A9-97DF-45C5-BDB8-103930431B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
   <si>
     <t>Close</t>
   </si>
@@ -355,6 +363,60 @@
   </si>
   <si>
     <t>#3</t>
+  </si>
+  <si>
+    <t>#12-24</t>
+  </si>
+  <si>
+    <t>#12-28</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>9/32</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>5/16</t>
+  </si>
+  <si>
+    <t>25/64</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>27/64</t>
+  </si>
+  <si>
+    <t>7/64</t>
+  </si>
+  <si>
+    <t>31/64</t>
+  </si>
+  <si>
+    <t>35/64</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>BHCS</t>
   </si>
 </sst>
 </file>
@@ -574,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -601,7 +663,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +697,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -669,234 +731,272 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E995E4A-D815-47AD-90F0-D2BFAF56B5E6}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G18"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,158 +1349,171 @@
     <col min="19" max="19" width="6" style="29" customWidth="1"/>
     <col min="20" max="20" width="6.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="6.28515625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="59"/>
-    <col min="23" max="23" width="12" style="77" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="36"/>
+    <col min="23" max="23" width="12" style="42" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90" t="s">
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90" t="s">
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="90" t="s">
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="93" t="s">
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="94"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="107" t="s">
+      <c r="W1" s="77"/>
+      <c r="X1" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="77"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="108"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="83" t="s">
+      <c r="G2" s="108"/>
+      <c r="H2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="108"/>
+      <c r="J2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="86">
+      <c r="K2" s="108"/>
+      <c r="L2" s="107">
         <v>0.5</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46">
+      <c r="M2" s="108"/>
+      <c r="N2" s="109">
         <v>0.75</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="86">
+      <c r="O2" s="108"/>
+      <c r="P2" s="107">
         <v>0.65</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="86">
+      <c r="Q2" s="108"/>
+      <c r="R2" s="107">
         <v>0.7</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46">
+      <c r="S2" s="108"/>
+      <c r="T2" s="109">
         <v>0.75</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="72" t="s">
+      <c r="U2" s="108"/>
+      <c r="V2" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="68" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="99" t="s">
+      <c r="X2" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="99" t="s">
+      <c r="N3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="98" t="s">
+      <c r="O3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="99" t="s">
+      <c r="P3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="96" t="s">
+      <c r="R3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="98" t="s">
+      <c r="S3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="99" t="s">
+      <c r="T3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="98" t="s">
+      <c r="U3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="105"/>
-      <c r="W3" s="106"/>
-    </row>
-    <row r="4" spans="1:23" s="95" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="79"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="80"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
@@ -1408,7 +1521,9 @@
         <f>1/80</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="30">
+        <v>5.1999999999999998E-2</v>
+      </c>
       <c r="D4" s="30">
         <v>0.06</v>
       </c>
@@ -1460,47 +1575,55 @@
       <c r="T4" s="30">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="U4" s="113" t="s">
+      <c r="U4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="70">
+      <c r="V4" s="41">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="W4" s="104">
+      <c r="W4" s="51">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="X4" s="41">
+        <v>0.114</v>
+      </c>
+      <c r="Y4" s="51">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="11">
         <f>1/64</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="100">
+      <c r="C5" s="56">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D5" s="104">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E5" s="13">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="104">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="100">
+      <c r="H5" s="104">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="104">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="116" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="12">
@@ -1533,32 +1656,40 @@
       <c r="U5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="102">
+      <c r="V5" s="81">
         <v>0.11799999999999999</v>
       </c>
-      <c r="W5" s="103">
+      <c r="W5" s="82">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="X5" s="81">
+        <v>0.129</v>
+      </c>
+      <c r="Y5" s="82">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="16">
         <f>1/72</f>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="57">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D6" s="92"/>
       <c r="E6" s="17">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="54"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="34">
         <v>6.3500000000000001E-2</v>
       </c>
@@ -1589,10 +1720,12 @@
       <c r="U6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="84"/>
-      <c r="W6" s="74"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V6" s="75"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="73"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
@@ -1600,70 +1733,78 @@
         <f>1/56</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62">
+      <c r="C7" s="54">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D7" s="103">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="E7" s="7">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="103">
         <v>0.1065</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="103">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="103">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7" s="3">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="61">
+      <c r="R7" s="3">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="61">
+      <c r="T7" s="3">
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="U7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="75">
+      <c r="V7" s="66">
         <f>9/64</f>
         <v>0.140625</v>
       </c>
-      <c r="W7" s="78">
+      <c r="W7" s="68">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="66">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Y7" s="68">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
@@ -1671,81 +1812,87 @@
         <f>1/64</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="55">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D8" s="103"/>
       <c r="E8" s="7">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="61">
+      <c r="F8" s="103"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="M8" s="64" t="s">
+      <c r="M8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="3">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="3">
         <v>7.85E-2</v>
       </c>
-      <c r="S8" s="64" t="s">
+      <c r="S8" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="3">
         <v>7.8E-2</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="76"/>
-      <c r="W8" s="79"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="V8" s="67"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="69"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="14">
         <f>1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="49">
+      <c r="C9" s="56">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D9" s="91">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E9" s="15">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="91">
         <v>0.12</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="91">
         <v>0.11</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="91">
         <v>0.104</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="101" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="33">
@@ -1778,32 +1925,40 @@
       <c r="U9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="71">
+      <c r="V9" s="74">
         <v>0.161</v>
       </c>
-      <c r="W9" s="73">
+      <c r="W9" s="72">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="X9" s="74">
+        <v>0.188</v>
+      </c>
+      <c r="Y9" s="72">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="16">
         <f>1/56</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="57">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D10" s="92"/>
       <c r="E10" s="17">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="54"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="102"/>
       <c r="L10" s="34">
         <v>8.8999999999999996E-2</v>
       </c>
@@ -1819,21 +1974,27 @@
       <c r="P10" s="34">
         <v>9.11E-2</v>
       </c>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="R10" s="34">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="S10" s="27"/>
+      <c r="S10" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="T10" s="34">
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="U10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="V10" s="84"/>
-      <c r="W10" s="74"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V10" s="75"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="73"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>16</v>
       </c>
@@ -1841,69 +2002,77 @@
         <f>1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62">
+      <c r="C11" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D11" s="103">
         <v>0.112</v>
       </c>
       <c r="E11" s="7">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="103">
         <v>0.13600000000000001</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="103">
         <v>0.1285</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="103">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="61">
+      <c r="P11" s="3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="61">
+      <c r="R11" s="3">
         <v>0.1</v>
       </c>
-      <c r="S11" s="64" t="s">
+      <c r="S11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="T11" s="61">
+      <c r="T11" s="3">
         <v>9.9299999999999999E-2</v>
       </c>
       <c r="U11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="75">
+      <c r="V11" s="66">
         <v>0.183</v>
       </c>
-      <c r="W11" s="78">
+      <c r="W11" s="68">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="66">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>17</v>
       </c>
@@ -1911,87 +2080,101 @@
         <f>1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D12" s="103"/>
       <c r="E12" s="7">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="61">
+      <c r="F12" s="103"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="3">
         <v>9.35E-2</v>
       </c>
       <c r="O12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="61">
+      <c r="P12" s="3">
         <v>0.1028</v>
       </c>
-      <c r="Q12" s="64" t="s">
+      <c r="Q12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="61">
+      <c r="R12" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="S12" s="64" t="s">
+      <c r="S12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="T12" s="61">
+      <c r="T12" s="3">
         <v>0.1014</v>
       </c>
       <c r="U12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="76"/>
-      <c r="W12" s="79"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="V12" s="67"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="69"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="14">
         <f>1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="49">
+      <c r="C13" s="33">
+        <v>0.109</v>
+      </c>
+      <c r="D13" s="91">
         <v>0.125</v>
       </c>
       <c r="E13" s="15">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="91">
         <v>0.154</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="91">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="91">
         <v>0.1285</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="20"/>
+      <c r="L13" s="33">
+        <v>0.1094</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="P13" s="33">
         <v>0.114</v>
       </c>
@@ -2010,36 +2193,48 @@
       <c r="U13" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="V13" s="71">
+      <c r="V13" s="74">
         <v>0.20499999999999999</v>
       </c>
-      <c r="W13" s="73">
+      <c r="W13" s="72">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="X13" s="74"/>
+      <c r="Y13" s="72"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="16">
         <f>1/44</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="34">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="92"/>
       <c r="E14" s="17">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="21"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="34">
+        <v>0.11</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="34">
+        <v>0.104</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P14" s="34">
         <v>0.115</v>
       </c>
@@ -2049,17 +2244,21 @@
       <c r="R14" s="34">
         <v>0.11409999999999999</v>
       </c>
-      <c r="S14" s="27"/>
+      <c r="S14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="T14" s="34">
         <v>0.1134</v>
       </c>
       <c r="U14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="84"/>
-      <c r="W14" s="74"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V14" s="75"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="73"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>36</v>
       </c>
@@ -2067,69 +2266,73 @@
         <f>1/32</f>
         <v>3.125E-2</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62">
+      <c r="C15" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D15" s="103">
         <v>0.13800000000000001</v>
       </c>
       <c r="E15" s="7">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="103">
         <v>0.16950000000000001</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="103">
         <v>0.14949999999999999</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="103">
         <v>0.14399999999999999</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15" s="3">
         <v>0.1065</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="61">
+      <c r="P15" s="3">
         <v>0.12429999999999999</v>
       </c>
-      <c r="Q15" s="64" t="s">
+      <c r="Q15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="61">
+      <c r="R15" s="3">
         <v>0.123</v>
       </c>
-      <c r="S15" s="64" t="s">
+      <c r="S15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="61">
+      <c r="T15" s="3">
         <v>0.1221</v>
       </c>
       <c r="U15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="75">
+      <c r="V15" s="66">
         <v>0.22600000000000001</v>
       </c>
-      <c r="W15" s="78">
+      <c r="W15" s="68">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="66"/>
+      <c r="Y15" s="68"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>37</v>
       </c>
@@ -2137,79 +2340,87 @@
         <f>1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
+      <c r="C16" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="D16" s="103"/>
       <c r="E16" s="7">
         <v>0.10730000000000001</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="61">
+      <c r="F16" s="103"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="3">
         <v>0.12</v>
       </c>
-      <c r="M16" s="64" t="s">
+      <c r="M16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="61">
+      <c r="N16" s="3">
         <v>0.113</v>
       </c>
       <c r="O16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="61">
+      <c r="P16" s="3">
         <v>0.127</v>
       </c>
-      <c r="Q16" s="64" t="s">
+      <c r="Q16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16" s="3">
         <v>0.126</v>
       </c>
-      <c r="S16" s="64" t="s">
+      <c r="S16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="61">
+      <c r="T16" s="3">
         <v>0.12529999999999999</v>
       </c>
       <c r="U16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="76"/>
-      <c r="W16" s="79"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="V16" s="67"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="69"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="14">
         <f>1/32</f>
         <v>3.125E-2</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="49">
+      <c r="C17" s="33">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D17" s="91">
         <v>0.16400000000000001</v>
       </c>
       <c r="E17" s="15">
         <v>0.12570000000000001</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="91">
         <v>0.19350000000000001</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="49">
+      <c r="G17" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="91">
         <v>0.17699999999999999</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="91">
         <v>0.16950000000000001</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="101" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="33">
@@ -2242,32 +2453,36 @@
       <c r="U17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="V17" s="71">
+      <c r="V17" s="74">
         <v>0.27</v>
       </c>
-      <c r="W17" s="73">
+      <c r="W17" s="72">
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="X17" s="74"/>
+      <c r="Y17" s="72"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="16">
         <f>1/36</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="34">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D18" s="92"/>
       <c r="E18" s="17">
         <v>0.12989999999999999</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="54"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="102"/>
       <c r="L18" s="34">
         <v>0.14699999999999999</v>
       </c>
@@ -2298,10 +2513,12 @@
       <c r="U18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="84"/>
-      <c r="W18" s="74"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V18" s="75"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="73"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>62</v>
       </c>
@@ -2309,25 +2526,31 @@
         <f>1/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="37">
+      <c r="C19" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D19" s="103">
         <v>0.19</v>
       </c>
       <c r="E19" s="7">
         <v>0.1389</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="36">
+      <c r="F19" s="85">
+        <v>0.221</v>
+      </c>
+      <c r="G19" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="93">
         <v>0.20100000000000001</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="93">
         <v>0.19600000000000001</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="95" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="3">
@@ -2360,15 +2583,17 @@
       <c r="U19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="V19" s="75">
+      <c r="V19" s="66">
         <f>5/16</f>
         <v>0.3125</v>
       </c>
-      <c r="W19" s="78">
+      <c r="W19" s="68">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="66"/>
+      <c r="Y19" s="68"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>63</v>
       </c>
@@ -2376,17 +2601,19 @@
         <f>1/32</f>
         <v>3.125E-2</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D20" s="103"/>
       <c r="E20" s="7">
         <v>0.1517</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="43"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="96"/>
       <c r="L20" s="3">
         <v>0.16950000000000001</v>
       </c>
@@ -2408,578 +2635,798 @@
       <c r="R20" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="S20" s="28"/>
+      <c r="S20" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="T20" s="3">
         <v>0.1741</v>
       </c>
       <c r="U20" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="V20" s="76"/>
-      <c r="W20" s="79"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="V20" s="67"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="69"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="11">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.189</v>
+      </c>
+      <c r="D21" s="104">
+        <v>0.216</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="91">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="I21" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="91">
+        <v>0.221</v>
+      </c>
+      <c r="K21" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.189</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="R21" s="12">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="T21" s="12">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" s="70">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="W21" s="72">
+        <v>0.216</v>
+      </c>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="72"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="11">
+        <f>1/28</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.193</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="13">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="F22" s="88"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="12">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.182</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="12">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="T22" s="12">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="V22" s="71"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="73"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B23" s="59">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="49">
+      <c r="C23" s="53">
+        <v>0.218</v>
+      </c>
+      <c r="D23" s="93">
         <v>0.25</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E23" s="60">
         <v>0.18870000000000001</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="49">
+      <c r="F23" s="85">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="93">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I23" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J23" s="93">
         <v>0.25700000000000001</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K23" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L23" s="53">
         <v>0.21879999999999999</v>
       </c>
-      <c r="M21" s="114" t="s">
+      <c r="M23" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N23" s="53">
         <v>0.20100000000000001</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O23" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P23" s="53">
         <v>0.22800000000000001</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="Q23" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R23" s="53">
         <v>0.22600000000000001</v>
       </c>
-      <c r="S21" s="26" t="s">
+      <c r="S23" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T23" s="53">
         <v>0.22450000000000001</v>
       </c>
-      <c r="U21" s="20"/>
-      <c r="V21" s="71">
+      <c r="U23" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="V23" s="66">
         <v>0.375</v>
       </c>
-      <c r="W21" s="73">
+      <c r="W23" s="68">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="X23" s="66">
+        <v>0.437</v>
+      </c>
+      <c r="Y23" s="68">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B24" s="9">
         <f>1/28</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="17">
+      <c r="C24" s="30">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="10">
         <v>0.20619999999999999</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="34">
+      <c r="F24" s="86"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="30">
         <v>0.22800000000000001</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M24" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N24" s="30">
         <v>0.21299999999999999</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O24" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P24" s="30">
         <v>0.23430000000000001</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="Q24" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="R22" s="34">
+      <c r="R24" s="30">
         <v>0.2329</v>
       </c>
-      <c r="S22" s="27" t="s">
+      <c r="S24" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="T22" s="34">
+      <c r="T24" s="30">
         <v>0.23180000000000001</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U24" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="V22" s="84"/>
-      <c r="W22" s="74"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="V24" s="67"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="69"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B25" s="11">
         <f>1/18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="37">
+      <c r="C25" s="12">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D25" s="104">
         <v>0.3125</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E25" s="13">
         <v>0.24429999999999999</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="36">
+      <c r="F25" s="87">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="G25" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="91">
         <v>0.33200000000000002</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I25" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J25" s="91">
         <v>0.32300000000000001</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K25" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="3">
+      <c r="L25" s="12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="12">
         <v>0.28789999999999999</v>
       </c>
-      <c r="Q23" s="28" t="s">
+      <c r="Q25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R25" s="12">
         <v>0.28610000000000002</v>
       </c>
-      <c r="S23" s="28"/>
-      <c r="T23" s="3">
+      <c r="S25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" s="12">
         <v>0.28420000000000001</v>
       </c>
-      <c r="U23" s="22"/>
-      <c r="V23" s="75">
+      <c r="U25" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="V25" s="74">
         <f>15/32</f>
         <v>0.46875</v>
       </c>
-      <c r="W23" s="78">
+      <c r="W25" s="72">
         <f>5/16</f>
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="X25" s="74"/>
+      <c r="Y25" s="72"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B26" s="11">
         <f>1/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="7">
+      <c r="C26" s="12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D26" s="104"/>
+      <c r="E26" s="13">
         <v>0.26140000000000002</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="3">
+      <c r="F26" s="88"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="12">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="12">
         <v>0.29409999999999997</v>
       </c>
-      <c r="Q24" s="28" t="s">
+      <c r="Q26" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R26" s="12">
         <v>0.29270000000000002</v>
       </c>
-      <c r="S24" s="28" t="s">
+      <c r="S26" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T26" s="12">
         <v>0.29120000000000001</v>
       </c>
-      <c r="U24" s="22" t="s">
+      <c r="U26" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="V24" s="76"/>
-      <c r="W24" s="79"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="V26" s="75"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="73"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B27" s="59">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C25" s="33">
-        <v>0.33439999999999998</v>
-      </c>
-      <c r="D25" s="49">
+      <c r="C27" s="54">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D27" s="93">
         <v>0.375</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E27" s="60">
         <v>0.29830000000000001</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="49">
+      <c r="F27" s="85">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="93">
         <v>0.39700000000000002</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I27" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J27" s="93">
         <v>0.38600000000000001</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K27" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="33">
+      <c r="L27" s="53">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="53">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="O27" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="53">
         <v>0.34739999999999999</v>
       </c>
-      <c r="Q25" s="26" t="s">
+      <c r="Q27" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R27" s="53">
         <v>0.34520000000000001</v>
       </c>
-      <c r="S25" s="26"/>
-      <c r="T25" s="33">
+      <c r="S27" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="T27" s="53">
         <v>0.34310000000000002</v>
       </c>
-      <c r="U25" s="20" t="s">
+      <c r="U27" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="V25" s="71">
+      <c r="V27" s="66">
         <f>9/16</f>
         <v>0.5625</v>
       </c>
-      <c r="W25" s="73">
+      <c r="W27" s="68">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="X27" s="66"/>
+      <c r="Y27" s="68"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B28" s="9">
         <f>1/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="17">
+      <c r="C28" s="55"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="10">
         <v>0.32390000000000002</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="34">
+      <c r="F28" s="86"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="30">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="30">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" s="30">
         <v>0.35659999999999997</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q28" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R28" s="30">
         <v>0.35520000000000002</v>
       </c>
-      <c r="S26" s="27"/>
-      <c r="T26" s="34">
+      <c r="S28" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="T28" s="30">
         <v>0.35370000000000001</v>
       </c>
-      <c r="U26" s="21"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="74"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="U28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="V28" s="67"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="69"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B29" s="11">
         <f>1/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.3911</v>
-      </c>
-      <c r="D27" s="37">
+      <c r="C29" s="56">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D29" s="104">
         <v>0.4375</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E29" s="13">
         <v>0.34989999999999999</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="36">
+      <c r="F29" s="87">
+        <v>0.4844</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="91">
         <v>0.46879999999999999</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I29" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J29" s="91">
         <v>0.4531</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K29" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="3">
+      <c r="L29" s="12">
+        <v>0.3906</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="12">
         <v>0.40589999999999998</v>
       </c>
-      <c r="Q27" s="28" t="s">
+      <c r="Q29" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R29" s="12">
         <v>0.40350000000000003</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="S29" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T29" s="12">
         <v>0.40110000000000001</v>
       </c>
-      <c r="U27" s="22" t="s">
+      <c r="U29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="V27" s="75">
+      <c r="V29" s="74">
         <f>21/32</f>
         <v>0.65625</v>
       </c>
-      <c r="W27" s="78">
+      <c r="W29" s="72">
         <f>7/16</f>
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="X29" s="74"/>
+      <c r="Y29" s="72"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B30" s="11">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="7">
+      <c r="C30" s="57"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="13">
         <v>0.37619999999999998</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="3">
+      <c r="F30" s="88"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="12">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0.3906</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="12">
         <v>0.41539999999999999</v>
       </c>
-      <c r="Q28" s="28" t="s">
+      <c r="Q30" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R30" s="12">
         <v>0.41370000000000001</v>
       </c>
-      <c r="S28" s="28" t="s">
+      <c r="S30" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T30" s="12">
         <v>0.41199999999999998</v>
       </c>
-      <c r="U28" s="22" t="s">
+      <c r="U30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="76"/>
-      <c r="W28" s="79"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="V30" s="75"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="73"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B31" s="59">
         <f>1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C31" s="54">
         <v>0.45</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D31" s="93">
         <v>0.5</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E31" s="60">
         <v>0.40560000000000002</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="49">
+      <c r="F31" s="85">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="93">
         <v>0.53120000000000001</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I31" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J31" s="93">
         <v>0.51559999999999995</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K31" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="33">
+      <c r="L31" s="53">
+        <v>0.4531</v>
+      </c>
+      <c r="M31" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" s="53">
+        <v>0.4219</v>
+      </c>
+      <c r="O31" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="53">
         <v>0.46600000000000003</v>
       </c>
-      <c r="Q29" s="26" t="s">
+      <c r="Q31" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R31" s="53">
         <v>0.46339999999999998</v>
       </c>
-      <c r="S29" s="26"/>
-      <c r="T29" s="33">
+      <c r="S31" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="T31" s="53">
         <v>0.46079999999999999</v>
       </c>
-      <c r="U29" s="20"/>
-      <c r="V29" s="71">
+      <c r="U31" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="V31" s="66">
         <v>0.75</v>
       </c>
-      <c r="W29" s="73">
+      <c r="W31" s="68">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="X31" s="66"/>
+      <c r="Y31" s="68"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B32" s="9">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="17">
+      <c r="C32" s="55"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="10">
         <v>0.43869999999999998</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="34">
+      <c r="F32" s="86"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="30">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" s="30">
+        <v>0.4531</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" s="30">
         <v>0.47789999999999999</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="34">
+      <c r="Q32" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="R32" s="30">
         <v>0.47620000000000001</v>
       </c>
-      <c r="S30" s="27"/>
-      <c r="T30" s="34">
+      <c r="S32" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="T32" s="30">
         <v>0.47449999999999998</v>
       </c>
-      <c r="U30" s="21"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="74"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="60"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="60"/>
+      <c r="U32" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="V32" s="67"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="69"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
@@ -3003,7 +3450,7 @@
       <c r="S33" s="28"/>
       <c r="T33" s="3"/>
       <c r="U33" s="22"/>
-      <c r="V33" s="60"/>
+      <c r="V33" s="37"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
@@ -3027,7 +3474,7 @@
       <c r="S34" s="28"/>
       <c r="T34" s="3"/>
       <c r="U34" s="22"/>
-      <c r="V34" s="60"/>
+      <c r="V34" s="37"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
@@ -3051,7 +3498,7 @@
       <c r="S35" s="28"/>
       <c r="T35" s="3"/>
       <c r="U35" s="22"/>
-      <c r="V35" s="60"/>
+      <c r="V35" s="37"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
@@ -3075,7 +3522,7 @@
       <c r="S36" s="28"/>
       <c r="T36" s="3"/>
       <c r="U36" s="22"/>
-      <c r="V36" s="60"/>
+      <c r="V36" s="37"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
@@ -3099,110 +3546,91 @@
       <c r="S37" s="28"/>
       <c r="T37" s="3"/>
       <c r="U37" s="22"/>
-      <c r="V37" s="60"/>
+      <c r="V37" s="37"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="37"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
+  <mergeCells count="177">
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="F1:K1"/>
@@ -3222,26 +3650,133 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:W30">
+  <conditionalFormatting sqref="A4:W5 A7:W7 A6:B6 D6:W6 A29:W29 A28:B28 D28:W28 A31:W31 A30:B30 D30:W30 A32:B32 D32:W32 A9:W9 A8:B8 D8:W8 A11:W21 A10:B10 D10:W10 A23:W27 A22:C22 E22 L22:U22 X4:Y21 X23:Y32">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
